--- a/inputs/data/GSS_Table3.xlsx
+++ b/inputs/data/GSS_Table3.xlsx
@@ -609,12 +609,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="115">
   <si>
     <t>Section</t>
   </si>
   <si>
-    <t>Module</t>
+    <t>Modules</t>
   </si>
   <si>
     <t>Has a mental health condition</t>
@@ -872,9 +872,6 @@
     <t>Males aged 15 years and over</t>
   </si>
   <si>
-    <t>Modules</t>
-  </si>
-  <si>
     <t>Excellent / Very good</t>
   </si>
   <si>
@@ -885,9 +882,6 @@
   </si>
   <si>
     <t>Females aged 15 years and over</t>
-  </si>
-  <si>
-    <t>Persons</t>
   </si>
   <si>
     <t>Persons aged 15 years and over</t>
@@ -958,6 +952,9 @@
     <t>Females</t>
   </si>
   <si>
+    <t>Persons</t>
+  </si>
+  <si>
     <t>© Commonwealth of Australia 2021</t>
   </si>
 </sst>
@@ -971,11 +968,12 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="&quot;&quot;#,##0&quot;&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="8.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1005,6 +1003,11 @@
       <i/>
       <sz val="8.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1180,19 +1183,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1207,14 +1210,14 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1239,11 +1242,11 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -8427,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -9750,7 +9753,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="8">
         <v>465.5</v>
@@ -9799,7 +9802,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="8">
         <v>579.7</v>
@@ -9848,7 +9851,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="8">
         <v>607.9</v>
@@ -11559,7 +11562,7 @@
     <row r="65" ht="11.25" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="24">
         <v>1642.8</v>
@@ -16051,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -17374,7 +17377,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="8">
         <v>751.9</v>
@@ -17423,7 +17426,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="8">
         <v>815.9</v>
@@ -17472,7 +17475,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="8">
         <v>1034.5</v>
@@ -19183,7 +19186,7 @@
     <row r="65" ht="11.25" customHeight="1">
       <c r="A65" s="29"/>
       <c r="B65" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C65" s="42">
         <v>2595.2</v>
@@ -23065,16 +23068,16 @@
     <row r="2" ht="30.0" customHeight="1">
       <c r="A2" s="45"/>
       <c r="B2" s="48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="50"/>
       <c r="E2" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="52"/>
       <c r="H2" s="48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I2" s="49"/>
       <c r="J2" s="53"/>
@@ -23148,7 +23151,7 @@
     <row r="4" ht="11.25" customHeight="1">
       <c r="A4" s="54"/>
       <c r="B4" s="55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -23173,7 +23176,7 @@
     </row>
     <row r="5" ht="11.25" customHeight="1">
       <c r="A5" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
@@ -24305,7 +24308,7 @@
     </row>
     <row r="32" ht="11.25" customHeight="1">
       <c r="A32" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -24759,7 +24762,7 @@
     </row>
     <row r="43" ht="11.25" customHeight="1">
       <c r="A43" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -24969,7 +24972,7 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -25437,7 +25440,7 @@
     </row>
     <row r="59" ht="11.25" customHeight="1">
       <c r="A59" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -25471,7 +25474,7 @@
     </row>
     <row r="60" ht="11.25" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B60" s="16">
         <v>86.4</v>
@@ -25519,7 +25522,7 @@
     </row>
     <row r="61" ht="11.25" customHeight="1">
       <c r="A61" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B61" s="16">
         <v>39.5</v>
@@ -25599,7 +25602,7 @@
     </row>
     <row r="63" ht="11.25" customHeight="1">
       <c r="A63" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -25667,7 +25670,7 @@
     </row>
     <row r="65" ht="11.25" customHeight="1">
       <c r="A65" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B65" s="16">
         <v>283.9</v>
@@ -25715,7 +25718,7 @@
     </row>
     <row r="66" ht="11.25" customHeight="1">
       <c r="A66" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B66" s="16">
         <v>239.7</v>
@@ -25763,7 +25766,7 @@
     </row>
     <row r="67" ht="11.25" customHeight="1">
       <c r="A67" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B67" s="16">
         <v>433.4</v>
@@ -25843,7 +25846,7 @@
     </row>
     <row r="69" ht="11.25" customHeight="1">
       <c r="A69" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -25877,7 +25880,7 @@
     </row>
     <row r="70" ht="11.25" customHeight="1">
       <c r="A70" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B70" s="16">
         <v>150.9</v>
@@ -25925,7 +25928,7 @@
     </row>
     <row r="71" ht="11.25" customHeight="1">
       <c r="A71" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B71" s="16">
         <v>806.4</v>
@@ -26345,7 +26348,7 @@
     </row>
     <row r="81" ht="11.25" customHeight="1">
       <c r="A81" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -26603,7 +26606,7 @@
     </row>
     <row r="87" ht="11.25" customHeight="1">
       <c r="A87" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -26671,7 +26674,7 @@
     </row>
     <row r="89" ht="11.25" customHeight="1">
       <c r="A89" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B89" s="16">
         <v>188.7</v>
@@ -26719,7 +26722,7 @@
     </row>
     <row r="90" ht="11.25" customHeight="1">
       <c r="A90" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B90" s="16">
         <v>411.1</v>
@@ -26767,7 +26770,7 @@
     </row>
     <row r="91" ht="11.25" customHeight="1">
       <c r="A91" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B91" s="16">
         <v>366.6</v>
@@ -28345,7 +28348,7 @@
     </row>
     <row r="128" ht="11.25" customHeight="1">
       <c r="A128" s="56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B128" s="43"/>
       <c r="C128" s="43"/>
@@ -29477,7 +29480,7 @@
     </row>
     <row r="155" ht="11.25" customHeight="1">
       <c r="A155" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
@@ -29931,7 +29934,7 @@
     </row>
     <row r="166" ht="11.25" customHeight="1">
       <c r="A166" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B166" s="16"/>
       <c r="C166" s="16"/>
@@ -30141,7 +30144,7 @@
     </row>
     <row r="171" ht="11.25" customHeight="1">
       <c r="A171" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
@@ -30609,7 +30612,7 @@
     </row>
     <row r="182" ht="11.25" customHeight="1">
       <c r="A182" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B182" s="16"/>
       <c r="C182" s="16"/>
@@ -30643,7 +30646,7 @@
     </row>
     <row r="183" ht="11.25" customHeight="1">
       <c r="A183" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B183" s="16">
         <v>141.2</v>
@@ -30691,7 +30694,7 @@
     </row>
     <row r="184" ht="11.25" customHeight="1">
       <c r="A184" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B184" s="16">
         <v>126.1</v>
@@ -30771,7 +30774,7 @@
     </row>
     <row r="186" ht="11.25" customHeight="1">
       <c r="A186" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B186" s="16"/>
       <c r="C186" s="16"/>
@@ -30839,7 +30842,7 @@
     </row>
     <row r="188" ht="11.25" customHeight="1">
       <c r="A188" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B188" s="16">
         <v>465.5</v>
@@ -30887,7 +30890,7 @@
     </row>
     <row r="189" ht="11.25" customHeight="1">
       <c r="A189" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B189" s="16">
         <v>579.7</v>
@@ -30935,7 +30938,7 @@
     </row>
     <row r="190" ht="11.25" customHeight="1">
       <c r="A190" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B190" s="16">
         <v>607.9</v>
@@ -31015,7 +31018,7 @@
     </row>
     <row r="192" ht="11.25" customHeight="1">
       <c r="A192" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B192" s="16"/>
       <c r="C192" s="16"/>
@@ -31049,7 +31052,7 @@
     </row>
     <row r="193" ht="11.25" customHeight="1">
       <c r="A193" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B193" s="16">
         <v>272.4</v>
@@ -31097,7 +31100,7 @@
     </row>
     <row r="194" ht="11.25" customHeight="1">
       <c r="A194" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B194" s="16">
         <v>1377.9</v>
@@ -31517,7 +31520,7 @@
     </row>
     <row r="204" ht="11.25" customHeight="1">
       <c r="A204" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B204" s="16"/>
       <c r="C204" s="16"/>
@@ -31775,7 +31778,7 @@
     </row>
     <row r="210" ht="11.25" customHeight="1">
       <c r="A210" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B210" s="16"/>
       <c r="C210" s="16"/>
@@ -31843,7 +31846,7 @@
     </row>
     <row r="212" ht="11.25" customHeight="1">
       <c r="A212" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B212" s="16">
         <v>516.9</v>
@@ -31891,7 +31894,7 @@
     </row>
     <row r="213" ht="11.25" customHeight="1">
       <c r="A213" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B213" s="16">
         <v>540.6</v>
@@ -31939,7 +31942,7 @@
     </row>
     <row r="214" ht="11.25" customHeight="1">
       <c r="A214" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B214" s="16">
         <v>565.2</v>
@@ -33437,7 +33440,7 @@
     </row>
     <row r="249" ht="11.25" customHeight="1">
       <c r="A249" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B249" s="24">
         <v>1642.8</v>
@@ -33517,7 +33520,7 @@
     </row>
     <row r="251" ht="11.25" customHeight="1">
       <c r="A251" s="56" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B251" s="43"/>
       <c r="C251" s="43"/>
@@ -34649,7 +34652,7 @@
     </row>
     <row r="278" ht="11.25" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B278" s="16"/>
       <c r="C278" s="16"/>
@@ -35103,7 +35106,7 @@
     </row>
     <row r="289" ht="11.25" customHeight="1">
       <c r="A289" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B289" s="16"/>
       <c r="C289" s="16"/>
@@ -35313,7 +35316,7 @@
     </row>
     <row r="294" ht="12.75" customHeight="1">
       <c r="A294" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B294" s="16"/>
       <c r="C294" s="16"/>
@@ -35781,7 +35784,7 @@
     </row>
     <row r="305" ht="11.25" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B305" s="16"/>
       <c r="C305" s="16"/>
@@ -35815,7 +35818,7 @@
     </row>
     <row r="306" ht="11.25" customHeight="1">
       <c r="A306" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B306" s="16">
         <v>232.2</v>
@@ -35863,7 +35866,7 @@
     </row>
     <row r="307" ht="11.25" customHeight="1">
       <c r="A307" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B307" s="16">
         <v>176.7</v>
@@ -35943,7 +35946,7 @@
     </row>
     <row r="309" ht="11.25" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B309" s="16"/>
       <c r="C309" s="16"/>
@@ -36011,7 +36014,7 @@
     </row>
     <row r="311" ht="11.25" customHeight="1">
       <c r="A311" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B311" s="16">
         <v>751.9</v>
@@ -36059,7 +36062,7 @@
     </row>
     <row r="312" ht="11.25" customHeight="1">
       <c r="A312" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B312" s="16">
         <v>815.9</v>
@@ -36107,7 +36110,7 @@
     </row>
     <row r="313" ht="11.25" customHeight="1">
       <c r="A313" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B313" s="16">
         <v>1034.5</v>
@@ -36187,7 +36190,7 @@
     </row>
     <row r="315" ht="11.25" customHeight="1">
       <c r="A315" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B315" s="16"/>
       <c r="C315" s="16"/>
@@ -36221,7 +36224,7 @@
     </row>
     <row r="316" ht="11.25" customHeight="1">
       <c r="A316" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B316" s="16">
         <v>435.8</v>
@@ -36269,7 +36272,7 @@
     </row>
     <row r="317" ht="11.25" customHeight="1">
       <c r="A317" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B317" s="16">
         <v>2155.6</v>
@@ -36689,7 +36692,7 @@
     </row>
     <row r="327" ht="11.25" customHeight="1">
       <c r="A327" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B327" s="16"/>
       <c r="C327" s="16"/>
@@ -36947,7 +36950,7 @@
     </row>
     <row r="333" ht="11.25" customHeight="1">
       <c r="A333" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B333" s="16"/>
       <c r="C333" s="16"/>
@@ -37015,7 +37018,7 @@
     </row>
     <row r="335" ht="11.25" customHeight="1">
       <c r="A335" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B335" s="16">
         <v>692.6</v>
@@ -37063,7 +37066,7 @@
     </row>
     <row r="336" ht="11.25" customHeight="1">
       <c r="A336" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B336" s="16">
         <v>946.9</v>
@@ -37111,7 +37114,7 @@
     </row>
     <row r="337" ht="11.25" customHeight="1">
       <c r="A337" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B337" s="16">
         <v>941.8</v>
@@ -38609,7 +38612,7 @@
     </row>
     <row r="372" ht="11.25" customHeight="1">
       <c r="A372" s="62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B372" s="42">
         <v>2595.2</v>
@@ -38689,7 +38692,7 @@
     </row>
     <row r="374" ht="11.25" customHeight="1">
       <c r="A374" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E374" s="5"/>
     </row>
